--- a/어제 성운이 면학가서 한거/2019년 소모품 신청서_5조_개밥.xlsx
+++ b/어제 성운이 면학가서 한거/2019년 소모품 신청서_5조_개밥.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\MDP_5\어제 성운이 면학가서 한거\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009D071-05B3-4D44-A89C-7E2897AA1F67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1992" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1995" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018년 1차" sheetId="10" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="2018년 4차" sheetId="13" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -435,10 +429,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.kiprofile.com/cart/shop/item.php?it_id=1292472736</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>라즈베리파이 3 B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -487,14 +477,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>오토케 고성능 USB PC 라발리에 마이크 FIFINE K053 / 타입 : 콘덴서 / 폴라 패턴 : 카디오이드 / 주파수 응답 : 50-16kHz / 민감도 : -38±3dB / 출력 연결 : USB 2.0 / 전원 공급 : 5V USB power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ssg.com/item/itemView.ssg?itemId=0000007050044&amp;siteNo=6001&amp;salestrNo=6001&amp;ckwhere=ssg_naver&amp;appPopYn=n&amp;NaPm=ct%3Djvfc7lpk%7Cci%3Dcba2dd25361ccabbe0e1c0bbb1fa6d5f60827897%7Ctr%3Dslsl%7Csn%3D218835%7Chk%3Dcbb1da7432856e2c11608dfd526ef4064ff52607</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3T/청색/600mm*600mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNF3030 / 7200mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS3214N13 2상스테핑모터 / 35각 유니폴라방식 2상 스테핑모터, 토크0.58Kg.cm, 1.8도, 35mm(size14) HB TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://motorbank.kr/goods/goods_view.php?goodsNo=1000000337</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝 모터 드라이버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L298N 스테핑모터모터 드라이버 / it can enable the onboard 5V logic power supply;after the power supply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1944255435&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW7x0OQwvl2EI1_NbIlH7lxMKhzwAPxo1dJjsiypOnSrMR1ReZzgb6hoCFZcQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오토케 고성능 USB PC 라발리에 마이크 FIFINE K053 / 타입 : 콘덴서 / 폴라 패턴 : 카디오이드 / 주파수 응답 : 50-16kHz / 민감도 : -38±3dB / 출력 연결 : USB 2.0 / 전원 공급 : 5V USB power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2347208525&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_ZVL52hCHa6VFrSjgFnI198htyGTGv5quDj_dxzJfz1l63vJmmjaBoC9vkQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -503,50 +533,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ssg.com/item/itemView.ssg?itemId=0000007050044&amp;siteNo=6001&amp;salestrNo=6001&amp;ckwhere=ssg_naver&amp;appPopYn=n&amp;NaPm=ct%3Djvfc7lpk%7Cci%3Dcba2dd25361ccabbe0e1c0bbb1fa6d5f60827897%7Ctr%3Dslsl%7Csn%3D218835%7Chk%3Dcbb1da7432856e2c11608dfd526ef4064ff52607</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3T/청색/600mm*600mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNF3030 / 7200mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS3214N13 2상스테핑모터 / 35각 유니폴라방식 2상 스테핑모터, 토크0.58Kg.cm, 1.8도, 35mm(size14) HB TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://motorbank.kr/goods/goods_view.php?goodsNo=1000000337</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텝 모터 드라이버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L298N 스테핑모터모터 드라이버 / it can enable the onboard 5V logic power supply;after the power supply</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6</t>
+    <t>http://www.ssg.com/item/itemView.ssg?itemId=0000007050044&amp;siteNo=6001&amp;salestrNo=6001&amp;ckwhere=ssg_naver&amp;appPopYn=n&amp;NaPm=ct%3Djvfztdj4%7Cci%3D2dec4bdb67109a60b5fbbcff88a9e30631cc14bc%7Ctr%3Dslsl%7Csn%3D218835%7Chk%3De8ded547fcc1de285cc79c10cfe8ab16d1f0ac51</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1064,46 +1058,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,6 +1070,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,12 +1102,49 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준_Sheet1" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1209,7 +1203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1242,26 +1236,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1294,23 +1271,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1486,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1496,32 +1456,32 @@
       <selection activeCell="C9" activeCellId="1" sqref="B9 C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1531,79 +1491,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1657,7 +1617,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>2</v>
       </c>
@@ -1687,7 +1647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1715,7 +1675,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1728,7 +1688,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1741,7 +1701,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1754,7 +1714,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1767,7 +1727,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1780,7 +1740,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1793,7 +1753,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1806,7 +1766,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1819,7 +1779,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1832,7 +1792,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1845,7 +1805,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1858,7 +1818,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1871,7 +1831,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1884,7 +1844,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1897,7 +1857,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1910,7 +1870,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1923,7 +1883,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1935,11 +1895,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1950,37 +1910,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1988,13 +1948,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2010,21 +1970,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2035,11 +1988,18 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId1"/>
+    <hyperlink ref="H11" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2049,7 +2009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2059,32 +2019,32 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2094,79 +2054,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2192,7 +2152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2220,7 +2180,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2248,7 +2208,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2276,7 +2236,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2304,7 +2264,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2332,7 +2292,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2360,7 +2320,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2373,7 +2333,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2386,7 +2346,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2399,7 +2359,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -2412,7 +2372,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -2425,7 +2385,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -2438,7 +2398,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -2451,7 +2411,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -2464,7 +2424,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -2477,7 +2437,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -2490,7 +2450,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -2503,7 +2463,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -2516,7 +2476,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -2529,7 +2489,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -2541,11 +2501,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -2556,37 +2516,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -2594,13 +2554,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2616,21 +2576,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2641,13 +2594,20 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H14" r:id="rId4"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2657,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2667,32 +2627,32 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2702,79 +2662,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2800,7 +2760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2828,7 +2788,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2856,7 +2816,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2884,7 +2844,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2912,7 +2872,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2968,7 +2928,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2996,7 +2956,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -3024,7 +2984,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -3037,7 +2997,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3050,7 +3010,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3063,7 +3023,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3076,7 +3036,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3089,7 +3049,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3102,7 +3062,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3115,7 +3075,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3128,7 +3088,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3141,7 +3101,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3154,7 +3114,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3167,7 +3127,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3179,11 +3139,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -3194,37 +3154,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -3232,13 +3192,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -3254,21 +3214,14 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3279,17 +3232,24 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="H16" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H10" r:id="rId2"/>
+    <hyperlink ref="H11" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="H13" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="H16" r:id="rId8"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -3299,42 +3259,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3344,79 +3304,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="H3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3442,15 +3402,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>35</v>
@@ -3465,22 +3425,22 @@
         <v>62000</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="27">
         <v>2</v>
@@ -3492,22 +3452,22 @@
         <v>100000</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="27">
         <v>2</v>
@@ -3519,22 +3479,22 @@
         <v>6000</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>4</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E12" s="25">
         <v>2</v>
@@ -3546,19 +3506,19 @@
         <v>4000</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>24</v>
@@ -3573,19 +3533,19 @@
         <v>33000</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>24</v>
@@ -3600,19 +3560,19 @@
         <v>60000</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>7</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>24</v>
@@ -3627,11 +3587,11 @@
         <v>6200</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -3639,7 +3599,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="44" t="s">
         <v>24</v>
@@ -3654,11 +3614,11 @@
         <v>108000</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -3666,7 +3626,7 @@
         <v>74</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>24</v>
@@ -3681,11 +3641,11 @@
         <v>45600</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3696,9 +3656,9 @@
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3711,7 +3671,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3724,7 +3684,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3737,7 +3697,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3750,7 +3710,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3763,7 +3723,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3776,7 +3736,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3789,7 +3749,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3802,7 +3762,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3815,7 +3775,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3828,7 +3788,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -3841,7 +3801,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -3854,7 +3814,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -3867,7 +3827,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -3880,7 +3840,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -3892,11 +3852,11 @@
       <c r="G33" s="35"/>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
@@ -3907,37 +3867,37 @@
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="68"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="22" t="s">
         <v>14</v>
       </c>
@@ -3945,13 +3905,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="55"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="22"/>
       <c r="H38" s="6"/>
     </row>
@@ -3967,21 +3927,14 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H42" s="21"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3992,35 +3945,42 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{70284867-F3C4-4053-80EC-6B4273003644}"/>
-    <hyperlink ref="H12" r:id="rId4" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6" xr:uid="{D52BE3AA-7D7B-4D6C-8AC5-C3D7F1E2F8C8}"/>
-    <hyperlink ref="H13" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2347208525&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_ZVL52hCHa6VFrSjgFnI198htyGTGv5quDj_dxzJfz1l63vJmmjaBoC9vkQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%" xr:uid="{EA3BA942-8282-4DA1-B135-2CDEA4B1D2A7}"/>
-    <hyperlink ref="H14" r:id="rId5" display="http://www.ssg.com/item/itemView.ssg?itemId=0000007050044&amp;siteNo=6001&amp;salestrNo=6001&amp;ckwhere=ssg_naver&amp;appPopYn=n&amp;NaPm=ct%3Djvfc7lpk%7Cci%3Dcba2dd25361ccabbe0e1c0bbb1fa6d5f60827897%7Ctr%3Dslsl%7Csn%3D218835%7Chk%3Dcbb1da7432856e2c11608dfd526ef4064ff52607" xr:uid="{ADF89DA4-748F-4328-8C00-4AE57BA8F54F}"/>
-    <hyperlink ref="H15" r:id="rId6" display="https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=" xr:uid="{018AA573-A067-42FE-BC3B-F6593C979A40}"/>
-    <hyperlink ref="H16" r:id="rId7" display="http://www.kiprofile.com/cart/shop/item.php?it_id=1292472736" xr:uid="{0F33C7A8-C5A8-45D3-B2C4-C0569A2DA281}"/>
-    <hyperlink ref="H17" r:id="rId8" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6" xr:uid="{737B7358-89A0-47E0-9D68-76CAF17ED479}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H12" r:id="rId4" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6"/>
+    <hyperlink ref="H16" r:id="rId5" display="https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart="/>
+    <hyperlink ref="H17" r:id="rId6" display="http://www.kiprofile.com/cart/shop/item.php?it_id=1292472736"/>
+    <hyperlink ref="H13"/>
+    <hyperlink ref="H14"/>
+    <hyperlink ref="H15" r:id="rId7"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId8"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/어제 성운이 면학가서 한거/2019년 소모품 신청서_5조_개밥.xlsx
+++ b/어제 성운이 면학가서 한거/2019년 소모품 신청서_5조_개밥.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\MDP_5\어제 성운이 면학가서 한거\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD8FBC-0E0B-44D7-97C0-C8F84018F05B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1995" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018년 1차" sheetId="10" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="2018년 4차" sheetId="13" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -540,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -913,7 +919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1057,6 +1063,46 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,9 +1116,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,48 +1146,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="2"/>
+    <cellStyle name="표준_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1203,7 +1212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1236,9 +1245,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1271,6 +1297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1446,7 +1489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1456,32 +1499,32 @@
       <selection activeCell="C9" activeCellId="1" sqref="B9 C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1491,79 +1534,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1617,7 +1660,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2</v>
       </c>
@@ -1647,7 +1690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1675,7 +1718,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1688,7 +1731,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1701,7 +1744,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1714,7 +1757,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1727,7 +1770,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1740,7 +1783,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1753,7 +1796,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1766,7 +1809,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1779,7 +1822,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1792,7 +1835,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1805,7 +1848,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1818,7 +1861,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1831,7 +1874,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1844,7 +1887,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1857,7 +1900,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1870,7 +1913,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1883,7 +1926,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1895,11 +1938,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -1910,37 +1953,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -1948,13 +1991,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -1970,14 +2013,21 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -1988,18 +2038,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1"/>
-    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2009,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2019,32 +2062,32 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2054,79 +2097,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2180,7 +2223,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2208,7 +2251,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2236,7 +2279,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2264,7 +2307,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2292,7 +2335,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2320,7 +2363,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2333,7 +2376,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2346,7 +2389,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2359,7 +2402,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -2372,7 +2415,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -2385,7 +2428,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -2398,7 +2441,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -2411,7 +2454,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -2424,7 +2467,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -2437,7 +2480,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -2450,7 +2493,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -2463,7 +2506,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -2476,7 +2519,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -2489,7 +2532,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -2501,11 +2544,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -2516,37 +2559,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -2554,13 +2597,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -2576,14 +2619,21 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -2594,20 +2644,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H11" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="H14" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -2617,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2627,32 +2670,32 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2662,79 +2705,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +2803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -2788,7 +2831,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -2816,7 +2859,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -2844,7 +2887,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -2872,7 +2915,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -2900,7 +2943,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -2928,7 +2971,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -2956,7 +2999,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -2984,7 +3027,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -2997,7 +3040,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3010,7 +3053,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3023,7 +3066,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3036,7 +3079,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3049,7 +3092,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3062,7 +3105,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3075,7 +3118,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3088,7 +3131,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3101,7 +3144,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3114,7 +3157,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3127,7 +3170,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3139,11 +3182,11 @@
       <c r="G28" s="35"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
@@ -3154,37 +3197,37 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="22" t="s">
         <v>14</v>
       </c>
@@ -3192,13 +3235,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
+    <row r="33" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="22"/>
       <c r="H33" s="6"/>
     </row>
@@ -3214,14 +3257,21 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:H31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3232,24 +3282,17 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H11" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="H13" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H15" r:id="rId7"/>
-    <hyperlink ref="H16" r:id="rId8"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="H16" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -3259,42 +3302,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3304,79 +3347,79 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="77"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -3402,7 +3445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -3429,7 +3472,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -3456,7 +3499,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -3483,7 +3526,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -3510,7 +3553,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -3537,7 +3580,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -3564,7 +3607,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -3591,7 +3634,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -3616,9 +3659,9 @@
       <c r="H16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -3643,9 +3686,9 @@
       <c r="H17" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3656,9 +3699,9 @@
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -3671,7 +3714,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -3684,7 +3727,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -3697,7 +3740,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -3710,7 +3753,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -3723,7 +3766,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -3736,7 +3779,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -3749,7 +3792,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -3762,7 +3805,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -3775,7 +3818,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -3788,7 +3831,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -3801,7 +3844,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -3814,7 +3857,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -3827,7 +3870,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -3840,7 +3883,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -3852,11 +3895,11 @@
       <c r="G33" s="35"/>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="61" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
@@ -3867,37 +3910,37 @@
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63" t="s">
+    <row r="35" spans="1:8" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
-    </row>
-    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="68"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="78"/>
+    </row>
+    <row r="36" spans="1:8" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="22" t="s">
         <v>14</v>
       </c>
@@ -3905,13 +3948,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
+    <row r="38" spans="1:8" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="22"/>
       <c r="H38" s="6"/>
     </row>
@@ -3927,14 +3970,21 @@
       </c>
       <c r="H39" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="21"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:H36"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -3945,25 +3995,18 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H11" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3"/>
-    <hyperlink ref="H12" r:id="rId4" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6"/>
-    <hyperlink ref="H16" r:id="rId5" display="https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart="/>
-    <hyperlink ref="H17" r:id="rId6" display="http://www.kiprofile.com/cart/shop/item.php?it_id=1292472736"/>
-    <hyperlink ref="H13"/>
-    <hyperlink ref="H14"/>
-    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2300502672&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_pryYBvt-m_Az3gaSns7aC3QnLG-SwgMdI3tgW_dfWpwt0s4bQtshoCyawQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%DF%B0%A1%C0%DB%BE%F7&amp;utm_source=%B1%B8%B1%DB_PC_S_%BC%EE%C7%CE&amp;utm_medium=%B0%CB%BB%F6" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H16" r:id="rId5" display="https://www.coupang.com/vp/products/168507281?itemId=482427440&amp;vendorItemId=4213372622&amp;q=%ED%8F%AC%EB%A7%A5%EC%8A%A4+3T+%ED%8C%8C%EB%9E%91&amp;itemsCount=36&amp;searchId=e446fc3e8b0b4976a2384d845152c508&amp;rank=4&amp;isAddedCart=" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H17" r:id="rId6" display="http://www.kiprofile.com/cart/shop/item.php?it_id=1292472736" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H13" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1944255435&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW7x0OQwvl2EI1_NbIlH7lxMKhzwAPxo1dJjsiypOnSrMR1ReZzgb6hoCFZcQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H14" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2347208525&amp;gclid=CjwKCAjw_MnmBRAoEiwAPRRWW_ZVL52hCHa6VFrSjgFnI198htyGTGv5quDj_dxzJfz1l63vJmmjaBoC9vkQAvD_BwE&amp;utm_term=&amp;utm_campaign=%B1%B8%B1%DB%BC%EE%C7%CEPC+%C3%" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.43307086614173229" top="0.78740157480314965" bottom="0.35433070866141736" header="0.43307086614173229" footer="0.27559055118110237"/>
@@ -3973,14 +4016,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
